--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF85D5E-9682-DE45-B293-9EF6DB9D6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A48AC-5D69-754D-800F-AE256937E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="28420" windowHeight="15740" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="276">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -213,13 +213,664 @@
   </si>
   <si>
     <t>Postal and Telegraph Traffic</t>
+  </si>
+  <si>
+    <t>Acrylic Fiber</t>
+  </si>
+  <si>
+    <t>Acrylonitrile</t>
+  </si>
+  <si>
+    <t>Amazon Prime users</t>
+  </si>
+  <si>
+    <t>Aniline</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Automatic transmission</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>BCG Vaccine</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Bicycles</t>
+  </si>
+  <si>
+    <t>Biofuels</t>
+  </si>
+  <si>
+    <t>Bisphenol A</t>
+  </si>
+  <si>
+    <t>CFLs</t>
+  </si>
+  <si>
+    <t>Cable TV</t>
+  </si>
+  <si>
+    <t>Caprolactam</t>
+  </si>
+  <si>
+    <t>Capture fisheries</t>
+  </si>
+  <si>
+    <t>Cellphones</t>
+  </si>
+  <si>
+    <t>Cellular phone</t>
+  </si>
+  <si>
+    <t>Central heating</t>
+  </si>
+  <si>
+    <t>Coal Power</t>
+  </si>
+  <si>
+    <t>Coal Production</t>
+  </si>
+  <si>
+    <t>Cobalt Mine Production</t>
+  </si>
+  <si>
+    <t>Colour TV</t>
+  </si>
+  <si>
+    <t>Compressed air energy storage</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>DTP1 Vaccine</t>
+  </si>
+  <si>
+    <t>DTP3 Vaccine</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Disk brakes</t>
+  </si>
+  <si>
+    <t>Dryer</t>
+  </si>
+  <si>
+    <t>Ebook reader</t>
+  </si>
+  <si>
+    <t>Electric Bicycles</t>
+  </si>
+  <si>
+    <t>Electric Range</t>
+  </si>
+  <si>
+    <t>Electric power</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity access</t>
+  </si>
+  <si>
+    <t>Electro-chemical capacitor</t>
+  </si>
+  <si>
+    <t>Electronic ignition</t>
+  </si>
+  <si>
+    <t>Ethanolamine</t>
+  </si>
+  <si>
+    <t>Ethyl Alcohol</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Ethylene 2</t>
+  </si>
+  <si>
+    <t>Ethylene Glycol</t>
+  </si>
+  <si>
+    <t>FCC-Refineries</t>
+  </si>
+  <si>
+    <t>Flow battery</t>
+  </si>
+  <si>
+    <t>Flush toilet</t>
+  </si>
+  <si>
+    <t>Flywheel</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Gas Production</t>
+  </si>
+  <si>
+    <t>Gas pipeline</t>
+  </si>
+  <si>
+    <t>Graphite Mine Production</t>
+  </si>
+  <si>
+    <t>HEPB3 Vaccine</t>
+  </si>
+  <si>
+    <t>HEPBB Vaccine</t>
+  </si>
+  <si>
+    <t>HIB3 Vaccine</t>
+  </si>
+  <si>
+    <t>Heat thermal storage</t>
+  </si>
+  <si>
+    <t>Home air conditioning</t>
+  </si>
+  <si>
+    <t>Household refrigerator</t>
+  </si>
+  <si>
+    <t>Households with only mobile phones (no landlines)</t>
+  </si>
+  <si>
+    <t>Hydro Power</t>
+  </si>
+  <si>
+    <t>Hydroelectricity</t>
+  </si>
+  <si>
+    <t>Hydrofluoric Acid</t>
+  </si>
+  <si>
+    <t>Hydrogen storage</t>
+  </si>
+  <si>
+    <t>IPV1 Vaccine</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>Latent heat</t>
+  </si>
+  <si>
+    <t>Laundry Dryers</t>
+  </si>
+  <si>
+    <t>Lead-acid battery</t>
+  </si>
+  <si>
+    <t>Liquefied natural gas</t>
+  </si>
+  <si>
+    <t>Lithium Mine Production</t>
+  </si>
+  <si>
+    <t>Lithium-ion battery</t>
+  </si>
+  <si>
+    <t>Low-Density Polyethylene</t>
+  </si>
+  <si>
+    <t>MCV1 Vaccine</t>
+  </si>
+  <si>
+    <t>MCV2 Vaccine</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Maleic Anhydride</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Microcomputer</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Motor Gasoline</t>
+  </si>
+  <si>
+    <t>Motorcycles</t>
+  </si>
+  <si>
+    <t>NatGas Power</t>
+  </si>
+  <si>
+    <t>Neoprene Rubber</t>
+  </si>
+  <si>
+    <t>Nickel-based battery</t>
+  </si>
+  <si>
+    <t>Nitrogen Fertilizer</t>
+  </si>
+  <si>
+    <t>Nox pollution controls (boilers)</t>
+  </si>
+  <si>
+    <t>Nuclear Energy</t>
+  </si>
+  <si>
+    <t>Nuclear Power</t>
+  </si>
+  <si>
+    <t>Off-Grid Onshore Wind Energy</t>
+  </si>
+  <si>
+    <t>Oil Production</t>
+  </si>
+  <si>
+    <t>Oil Refining Capacity</t>
+  </si>
+  <si>
+    <t>Oil pipeline</t>
+  </si>
+  <si>
+    <t>On-Grid Biogas</t>
+  </si>
+  <si>
+    <t>On-Grid Coal And Peat</t>
+  </si>
+  <si>
+    <t>On-Grid Geothermal Energy</t>
+  </si>
+  <si>
+    <t>On-Grid Liquid Biofuels</t>
+  </si>
+  <si>
+    <t>On-Grid Marine Energy</t>
+  </si>
+  <si>
+    <t>On-Grid Mixed Hydro Plants</t>
+  </si>
+  <si>
+    <t>On-Grid Natural Gas</t>
+  </si>
+  <si>
+    <t>On-Grid Nuclear</t>
+  </si>
+  <si>
+    <t>On-Grid Offshore Wind Energy</t>
+  </si>
+  <si>
+    <t>On-Grid Oil</t>
+  </si>
+  <si>
+    <t>On-Grid Onshore Wind Energy</t>
+  </si>
+  <si>
+    <t>On-Grid Renewable Hydropower</t>
+  </si>
+  <si>
+    <t>On-Grid Solar Photovoltaic</t>
+  </si>
+  <si>
+    <t>On-Grid Solar Thermal Energy</t>
+  </si>
+  <si>
+    <t>On-Grid Solid Biofuels</t>
+  </si>
+  <si>
+    <t>PCV3 Vaccine</t>
+  </si>
+  <si>
+    <t>POL3 Vaccine</t>
+  </si>
+  <si>
+    <t>Paraxylene</t>
+  </si>
+  <si>
+    <t>Passenger Cars</t>
+  </si>
+  <si>
+    <t>Pentaerythritol</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Phosphate Fertilizer</t>
+  </si>
+  <si>
+    <t>Phthalic Anhydride</t>
+  </si>
+  <si>
+    <t>Podcasting</t>
+  </si>
+  <si>
+    <t>PolyesterFiber</t>
+  </si>
+  <si>
+    <t>Polyethylene HD</t>
+  </si>
+  <si>
+    <t>Polyethylene LD</t>
+  </si>
+  <si>
+    <t>Polystyrene</t>
+  </si>
+  <si>
+    <t>Polyvinylchloride</t>
+  </si>
+  <si>
+    <t>Potash Fertilizer</t>
+  </si>
+  <si>
+    <t>Power steering</t>
+  </si>
+  <si>
+    <t>Primary Alumninum</t>
+  </si>
+  <si>
+    <t>Primary Magnesium</t>
+  </si>
+  <si>
+    <t>Pumped hydro storage</t>
+  </si>
+  <si>
+    <t>RCV1 Vaccine</t>
+  </si>
+  <si>
+    <t>ROTAC Vaccine</t>
+  </si>
+  <si>
+    <t>RTGS adoption</t>
+  </si>
+  <si>
+    <t>Radial tires</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>Rare Earth Mine Production</t>
+  </si>
+  <si>
+    <t>Refined Cane Sugar</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Refrigerators</t>
+  </si>
+  <si>
+    <t>Renewable Power</t>
+  </si>
+  <si>
+    <t>Running water</t>
+  </si>
+  <si>
+    <t>Sensible heat</t>
+  </si>
+  <si>
+    <t>Shale production</t>
+  </si>
+  <si>
+    <t>Shipping container port infrastructure</t>
+  </si>
+  <si>
+    <t>Shotgun Sanger DNA Sequencing</t>
+  </si>
+  <si>
+    <t>Smartphone usage</t>
+  </si>
+  <si>
+    <t>Social media usage</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Sodium Chlorate</t>
+  </si>
+  <si>
+    <t>Sodium-based battery</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>Solar Power</t>
+  </si>
+  <si>
+    <t>Stationary Steam Engines</t>
+  </si>
+  <si>
+    <t>Steam Locomotives</t>
+  </si>
+  <si>
+    <t>Steamships</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Titanium Sponge</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>Videocassette recorder</t>
+  </si>
+  <si>
+    <t>Vinyl Acetate</t>
+  </si>
+  <si>
+    <t>Vinyl Chloride</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Washing Machines</t>
+  </si>
+  <si>
+    <t>Washing machine</t>
+  </si>
+  <si>
+    <t>Water Heater</t>
+  </si>
+  <si>
+    <t>Wind Energy</t>
+  </si>
+  <si>
+    <t>Wind Power</t>
+  </si>
+  <si>
+    <t>YFV Vaccine</t>
+  </si>
+  <si>
+    <t>Zinc-based battery</t>
+  </si>
+  <si>
+    <t>Refineries</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>eBikes</t>
+  </si>
+  <si>
+    <t>Steamship</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Cellphone</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Solid Biomass</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Liquid Biofuels</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>Natural Gas Pipelines</t>
+  </si>
+  <si>
+    <t>Oil Pipelines</t>
+  </si>
+  <si>
+    <t>Shale Production</t>
+  </si>
+  <si>
+    <t>Aquaculture Production</t>
+  </si>
+  <si>
+    <t>Capture Fisheries</t>
+  </si>
+  <si>
+    <t>Cane Sugar Production</t>
+  </si>
+  <si>
+    <t>Beer Production</t>
+  </si>
+  <si>
+    <t>PolyethyleneLD</t>
+  </si>
+  <si>
+    <t>PolyethyleneHD</t>
+  </si>
+  <si>
+    <t>Polyester</t>
+  </si>
+  <si>
+    <t>Ethyl Alchol</t>
+  </si>
+  <si>
+    <t>BisphenolA</t>
+  </si>
+  <si>
+    <t>Low Density Polyethylene</t>
+  </si>
+  <si>
+    <t>Milk Production</t>
+  </si>
+  <si>
+    <t>Color TVs</t>
+  </si>
+  <si>
+    <t>Microwaves</t>
+  </si>
+  <si>
+    <t>Vacuums</t>
+  </si>
+  <si>
+    <t>Landlines</t>
+  </si>
+  <si>
+    <t>Air Conditioning</t>
+  </si>
+  <si>
+    <t>Dishwashers</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Sulphuric Acid</t>
+  </si>
+  <si>
+    <t>ARIANA</t>
+  </si>
+  <si>
+    <t>JENNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,13 +878,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,8 +917,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,21 +929,21 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,310 +1257,1412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>135</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>138</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>159</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>161</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>162</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>163</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>166</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>169</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>170</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>171</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>172</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>173</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>178</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>179</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>181</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>182</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>183</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>184</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>185</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>186</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>187</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>188</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>189</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>190</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>191</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>192</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>193</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>194</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>195</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>196</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>197</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>198</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>199</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>200</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>201</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>202</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>203</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>204</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>206</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>207</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>208</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>209</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>210</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>211</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>212</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>213</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>214</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>215</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>216</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>217</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>218</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>219</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>220</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>221</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>222</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J178">
+    <sortCondition ref="J1:J178"/>
+  </sortState>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A48AC-5D69-754D-800F-AE256937E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7829848-799A-4940-A79A-02F6E661E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="28420" windowHeight="15740" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="28420" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$J$1:$J$166</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -80,33 +84,9 @@
     <t>Internet Backbone Bandwidth</t>
   </si>
   <si>
-    <t>Flow Battery Storage</t>
-  </si>
-  <si>
-    <t>Flywheel Battery Storage</t>
-  </si>
-  <si>
-    <t>Heat Thermal Battery Storage</t>
-  </si>
-  <si>
-    <t>Latent Heat Storage</t>
-  </si>
-  <si>
-    <t>Lead-Acid Battery Storage</t>
-  </si>
-  <si>
-    <t>Lithium-ion Battery Storage</t>
-  </si>
-  <si>
     <t>Pumped Hydro Storage</t>
   </si>
   <si>
-    <t>Sensible Heat Storage</t>
-  </si>
-  <si>
-    <t>Sodium-based Battery Storage</t>
-  </si>
-  <si>
     <t>Aluminium Production - Refining</t>
   </si>
   <si>
@@ -743,42 +723,6 @@
     <t>Zinc-based battery</t>
   </si>
   <si>
-    <t>Refineries</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>CFL</t>
-  </si>
-  <si>
-    <t>eBikes</t>
-  </si>
-  <si>
-    <t>Steamship</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Cellphone</t>
-  </si>
-  <si>
-    <t>Solar PV</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-  </si>
-  <si>
     <t>Solid Biomass</t>
   </si>
   <si>
@@ -788,69 +732,15 @@
     <t>Liquid Biofuels</t>
   </si>
   <si>
-    <t>Railroads</t>
-  </si>
-  <si>
-    <t>Natural Gas Pipelines</t>
-  </si>
-  <si>
-    <t>Oil Pipelines</t>
-  </si>
-  <si>
     <t>Shale Production</t>
   </si>
   <si>
-    <t>Aquaculture Production</t>
-  </si>
-  <si>
     <t>Capture Fisheries</t>
   </si>
   <si>
-    <t>Cane Sugar Production</t>
-  </si>
-  <si>
-    <t>Beer Production</t>
-  </si>
-  <si>
-    <t>PolyethyleneLD</t>
-  </si>
-  <si>
-    <t>PolyethyleneHD</t>
-  </si>
-  <si>
-    <t>Polyester</t>
-  </si>
-  <si>
-    <t>Ethyl Alchol</t>
-  </si>
-  <si>
-    <t>BisphenolA</t>
-  </si>
-  <si>
-    <t>Low Density Polyethylene</t>
-  </si>
-  <si>
-    <t>Milk Production</t>
-  </si>
-  <si>
-    <t>Color TVs</t>
-  </si>
-  <si>
-    <t>Microwaves</t>
-  </si>
-  <si>
-    <t>Vacuums</t>
-  </si>
-  <si>
-    <t>Landlines</t>
-  </si>
-  <si>
     <t>Air Conditioning</t>
   </si>
   <si>
-    <t>Dishwashers</t>
-  </si>
-  <si>
     <t>Tin</t>
   </si>
   <si>
@@ -864,6 +754,33 @@
   </si>
   <si>
     <t>JENNA</t>
+  </si>
+  <si>
+    <t>Heat Thermal Storage</t>
+  </si>
+  <si>
+    <t>Latent Heat</t>
+  </si>
+  <si>
+    <t>Lead-Acid Battery</t>
+  </si>
+  <si>
+    <t>Lithium-ion Battery</t>
+  </si>
+  <si>
+    <t>Gas Pipeline</t>
+  </si>
+  <si>
+    <t>Nuclear power</t>
+  </si>
+  <si>
+    <t>Oil Pipeline</t>
+  </si>
+  <si>
+    <t>Sensible Heat</t>
+  </si>
+  <si>
+    <t>Sodium-based Battery</t>
   </si>
 </sst>
 </file>
@@ -926,7 +843,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -944,6 +869,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1257,553 +1224,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>265</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>99</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>105</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>13</v>
@@ -1811,18 +1779,18 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,404 +1798,404 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
       <c r="J88" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>251</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>149</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="J104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="J106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>156</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="J108" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>157</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="J109" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>158</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="J110" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>159</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="J111" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>160</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="J112" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>161</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="J113" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>162</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J114" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>163</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="J115" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>164</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>165</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J117" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>166</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>167</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>168</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>169</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>170</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>171</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>172</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>173</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>8</v>
@@ -2235,434 +2203,727 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>176</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="J130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>179</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>185</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>186</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>188</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>206</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J158" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>207</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J160" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>209</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>210</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>211</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>212</v>
+      </c>
+      <c r="J164" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>217</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>218</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>219</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>220</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J166" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J166">
+      <sortCondition sortBy="cellColor" ref="J1:J166" dxfId="5"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J178">
     <sortCondition ref="J1:J178"/>
   </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6220B-1F36-9E47-AFC5-7340F6696DC1}">
+  <dimension ref="A1:A54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7829848-799A-4940-A79A-02F6E661E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E666F-9436-6344-8999-E97A180CE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="28420" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="6020" yWindow="1000" windowWidth="22400" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="247">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -843,25 +843,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -895,22 +877,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1228,7 +1194,7 @@
   <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2624,20 +2590,20 @@
   </sheetData>
   <autoFilter ref="J1:J166" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J166">
-      <sortCondition sortBy="cellColor" ref="J1:J166" dxfId="5"/>
+      <sortCondition sortBy="cellColor" ref="J1:J166" dxfId="3"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J178">
     <sortCondition ref="J1:J178"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2645,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6220B-1F36-9E47-AFC5-7340F6696DC1}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,217 +2676,162 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E666F-9436-6344-8999-E97A180CE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B039E-8AF6-AB40-BAD3-45376AFE01B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="1000" windowWidth="22400" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="6040" yWindow="900" windowWidth="19920" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$J$1:$J$166</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="273">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -726,12 +726,6 @@
     <t>Solid Biomass</t>
   </si>
   <si>
-    <t>Biogas</t>
-  </si>
-  <si>
-    <t>Liquid Biofuels</t>
-  </si>
-  <si>
     <t>Shale Production</t>
   </si>
   <si>
@@ -781,6 +775,90 @@
   </si>
   <si>
     <t>Sodium-based Battery</t>
+  </si>
+  <si>
+    <t>Nemet_CSPOffshoreWind_TimeSeries.csv</t>
+  </si>
+  <si>
+    <t>UndergroundCables_Data.csv</t>
+  </si>
+  <si>
+    <t>OurWorldInData_Canals_TimeSeries.csv</t>
+  </si>
+  <si>
+    <t>IGU_LNG_TimeSeries.csv</t>
+  </si>
+  <si>
+    <t>AHRI_ASHPShipments_TimeSeries.csv</t>
+  </si>
+  <si>
+    <t>NEMET_RenewableAdoption_TimeSeries.csv</t>
+  </si>
+  <si>
+    <t>Share&gt;CumCap.xlsx</t>
+  </si>
+  <si>
+    <t>ds896-aluminum.xlsx</t>
+  </si>
+  <si>
+    <t>ds896-cadmium.xlsx</t>
+  </si>
+  <si>
+    <t>ds896-copper.xlsx</t>
+  </si>
+  <si>
+    <t>ds896-iron-steel.xlsx</t>
+  </si>
+  <si>
+    <t>in source data folder</t>
+  </si>
+  <si>
+    <t>not in source data folder, went back to spreadsheet to find and redownload source data</t>
+  </si>
+  <si>
+    <t>not in source data folder or OG spreadsheet</t>
+  </si>
+  <si>
+    <t>ds896-lead.xlsx</t>
+  </si>
+  <si>
+    <t>ds896-salt.xlsx</t>
+  </si>
+  <si>
+    <t>On-grid Biogas</t>
+  </si>
+  <si>
+    <t>not in source data but in spreadsheet, can't find OG source</t>
+  </si>
+  <si>
+    <t>says League of Nations data from Cameron in notes, not sure where to find that</t>
+  </si>
+  <si>
+    <t>ds140-cement-2019.xlsx</t>
+  </si>
+  <si>
+    <t>ds140-copper-2018.xlsx</t>
+  </si>
+  <si>
+    <t>site with data is in Portuguese and I'm confused</t>
+  </si>
+  <si>
+    <t>not in OG spreadsheet but did find in USGS data</t>
+  </si>
+  <si>
+    <t>ds140-gold-2018.xlsx</t>
+  </si>
+  <si>
+    <t>ds140-nickel-2018_1.xlsx</t>
+  </si>
+  <si>
+    <t>is this distinct from biogas, liquid biofuels, solid biofuels?</t>
+  </si>
+  <si>
+    <t>ds140-sand-gravel-construction-2019.xlsx</t>
+  </si>
+  <si>
+    <t>ds140-sand-industrial-2019.xlsx</t>
   </si>
 </sst>
 </file>
@@ -808,7 +886,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +896,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,11 +930,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,24 +1290,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1228,7 +1327,7 @@
         <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1247,7 +1346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1279,7 +1378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1295,7 +1394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1316,10 +1415,10 @@
         <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1343,7 +1442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -1351,12 +1450,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1375,7 +1474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1391,7 +1490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1399,7 +1498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1407,7 +1506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1415,7 +1514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1463,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1471,7 +1570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1487,7 +1586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1503,7 +1602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -1511,7 +1610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -1527,7 +1626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -1535,7 +1634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1543,7 +1642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1551,7 +1650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1559,7 +1658,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1567,7 +1666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1575,7 +1674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1583,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1591,7 +1690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1599,12 +1698,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -1615,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -1631,15 +1730,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -1647,7 +1746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -1679,7 +1778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -1695,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -1711,7 +1810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -1751,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -1767,7 +1866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -1775,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -1783,15 +1882,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>122</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -1807,12 +1906,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -1828,10 +1927,10 @@
         <v>127</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -1839,15 +1938,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>129</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -1855,7 +1954,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -1871,7 +1970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -1879,7 +1978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -1887,7 +1986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -1895,7 +1994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -1911,7 +2010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -1919,7 +2018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -1927,7 +2026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -1935,7 +2034,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -1943,7 +2042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -1951,7 +2050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -1975,7 +2074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -1983,12 +2082,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>147</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -1999,15 +2098,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>149</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>150</v>
       </c>
@@ -2015,7 +2114,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -2023,7 +2122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>152</v>
       </c>
@@ -2031,7 +2130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -2039,7 +2138,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -2047,7 +2146,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -2055,7 +2154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -2063,7 +2162,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>157</v>
       </c>
@@ -2071,7 +2170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -2079,7 +2178,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>159</v>
       </c>
@@ -2087,7 +2186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>160</v>
       </c>
@@ -2095,7 +2194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -2103,7 +2202,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>162</v>
       </c>
@@ -2111,7 +2210,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>163</v>
       </c>
@@ -2119,7 +2218,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>164</v>
       </c>
@@ -2127,7 +2226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -2143,7 +2242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -2151,7 +2250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -2175,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>171</v>
       </c>
@@ -2183,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>172</v>
       </c>
@@ -2191,7 +2290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>173</v>
       </c>
@@ -2207,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>175</v>
       </c>
@@ -2223,7 +2322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>177</v>
       </c>
@@ -2231,7 +2330,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>178</v>
       </c>
@@ -2239,7 +2338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>179</v>
       </c>
@@ -2247,7 +2346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -2287,23 +2386,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>185</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>186</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -2327,7 +2426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>190</v>
       </c>
@@ -2335,7 +2434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>191</v>
       </c>
@@ -2343,15 +2442,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>192</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>193</v>
       </c>
@@ -2367,7 +2466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -2375,7 +2474,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>196</v>
       </c>
@@ -2383,7 +2482,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>197</v>
       </c>
@@ -2391,7 +2490,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>198</v>
       </c>
@@ -2412,7 +2511,7 @@
         <v>200</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -2423,23 +2522,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>202</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>203</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>204</v>
       </c>
@@ -2455,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>206</v>
       </c>
@@ -2463,7 +2562,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>207</v>
       </c>
@@ -2471,7 +2570,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>208</v>
       </c>
@@ -2479,7 +2578,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -2487,7 +2586,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>210</v>
       </c>
@@ -2495,7 +2594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>211</v>
       </c>
@@ -2503,7 +2602,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -2511,20 +2610,20 @@
         <v>225</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>213</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>214</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -2588,14 +2687,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J166" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J166">
-      <sortCondition sortBy="cellColor" ref="J1:J166" dxfId="3"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J178">
     <sortCondition ref="J1:J178"/>
   </sortState>
@@ -2611,226 +2702,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6220B-1F36-9E47-AFC5-7340F6696DC1}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D6" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D7" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D8" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D14" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D15" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D16" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D17" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D18" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D19" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D21" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D22" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D23" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D24" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D25" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D26" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="D29" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="D30" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D31" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="D32" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D35" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B039E-8AF6-AB40-BAD3-45376AFE01B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553451C-95EF-1349-8C1A-87D92283A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="900" windowWidth="19920" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="620" yWindow="900" windowWidth="25340" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="257">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -723,9 +723,6 @@
     <t>Zinc-based battery</t>
   </si>
   <si>
-    <t>Solid Biomass</t>
-  </si>
-  <si>
     <t>Shale Production</t>
   </si>
   <si>
@@ -798,33 +795,12 @@
     <t>Share&gt;CumCap.xlsx</t>
   </si>
   <si>
-    <t>ds896-aluminum.xlsx</t>
-  </si>
-  <si>
-    <t>ds896-cadmium.xlsx</t>
-  </si>
-  <si>
-    <t>ds896-copper.xlsx</t>
-  </si>
-  <si>
-    <t>ds896-iron-steel.xlsx</t>
-  </si>
-  <si>
     <t>in source data folder</t>
   </si>
   <si>
-    <t>not in source data folder, went back to spreadsheet to find and redownload source data</t>
-  </si>
-  <si>
     <t>not in source data folder or OG spreadsheet</t>
   </si>
   <si>
-    <t>ds896-lead.xlsx</t>
-  </si>
-  <si>
-    <t>ds896-salt.xlsx</t>
-  </si>
-  <si>
     <t>On-grid Biogas</t>
   </si>
   <si>
@@ -834,31 +810,7 @@
     <t>says League of Nations data from Cameron in notes, not sure where to find that</t>
   </si>
   <si>
-    <t>ds140-cement-2019.xlsx</t>
-  </si>
-  <si>
-    <t>ds140-copper-2018.xlsx</t>
-  </si>
-  <si>
     <t>site with data is in Portuguese and I'm confused</t>
-  </si>
-  <si>
-    <t>not in OG spreadsheet but did find in USGS data</t>
-  </si>
-  <si>
-    <t>ds140-gold-2018.xlsx</t>
-  </si>
-  <si>
-    <t>ds140-nickel-2018_1.xlsx</t>
-  </si>
-  <si>
-    <t>is this distinct from biogas, liquid biofuels, solid biofuels?</t>
-  </si>
-  <si>
-    <t>ds140-sand-gravel-construction-2019.xlsx</t>
-  </si>
-  <si>
-    <t>ds140-sand-industrial-2019.xlsx</t>
   </si>
 </sst>
 </file>
@@ -886,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,12 +854,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,20 +876,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -961,22 +905,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1292,18 +1220,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1327,7 +1255,7 @@
         <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1415,7 +1343,7 @@
         <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1455,7 +1383,7 @@
         <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1703,7 +1631,7 @@
         <v>100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -1735,7 +1663,7 @@
         <v>104</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -1887,7 +1815,7 @@
         <v>122</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -1911,7 +1839,7 @@
         <v>125</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -1943,7 +1871,7 @@
         <v>129</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -2087,7 +2015,7 @@
         <v>147</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -2103,7 +2031,7 @@
         <v>149</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,7 +2319,7 @@
         <v>185</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -2399,7 +2327,7 @@
         <v>186</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -2447,7 +2375,7 @@
         <v>192</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -2462,8 +2390,8 @@
       <c r="A146" t="s">
         <v>194</v>
       </c>
-      <c r="J146" s="1" t="s">
-        <v>227</v>
+      <c r="J146" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -2511,7 +2439,7 @@
         <v>200</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -2527,7 +2455,7 @@
         <v>202</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -2535,7 +2463,7 @@
         <v>203</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -2615,7 +2543,7 @@
         <v>213</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -2623,7 +2551,7 @@
         <v>214</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -2702,300 +2630,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6220B-1F36-9E47-AFC5-7340F6696DC1}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/listoftech_ariana.xlsx
+++ b/listoftech_ariana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553451C-95EF-1349-8C1A-87D92283A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C4AAB7-75BA-F44C-9100-0BF4799424A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="900" windowWidth="25340" windowHeight="15740" activeTab="1" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="620" yWindow="900" windowWidth="19480" windowHeight="15740" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="258">
   <si>
     <t>Jet Aircraft</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>site with data is in Portuguese and I'm confused</t>
+  </si>
+  <si>
+    <t>Liquefied Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F949545-D5AA-3E49-88EA-C805971D3FA3}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,7 +1850,7 @@
         <v>126</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -2632,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6220B-1F36-9E47-AFC5-7340F6696DC1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
